--- a/public/assets/plantillas_excel/Mod_02/mrp.xlsx
+++ b/public/assets/plantillas_excel/Mod_02/mrp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/htdocs/sizb/public/assets/plantillas_excel/Mod_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07700EF5-95AC-E640-9415-5A41DE8377C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3CF533-376E-1241-81D5-B976C389A17B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -159,6 +156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,9 +553,9 @@
   </sheetPr>
   <dimension ref="A1:BQ18571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -573,233 +573,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
     </row>
     <row r="2" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
     </row>
     <row r="3" spans="1:69" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="1:69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
     </row>
     <row r="18571" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18571" s="5"/>
